--- a/Team Greybeards/Add Floating Registers.xlsx
+++ b/Team Greybeards/Add Floating Registers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>$t0</t>
   </si>
@@ -48,15 +48,9 @@
     <t>$t9</t>
   </si>
   <si>
-    <t>sign bit of A</t>
-  </si>
-  <si>
     <t>0x8000</t>
   </si>
   <si>
-    <t>sign bit of B</t>
-  </si>
-  <si>
     <t>signA OR signB</t>
   </si>
   <si>
@@ -97,6 +91,21 @@
   </si>
   <si>
     <t>diff of exponents</t>
+  </si>
+  <si>
+    <t>exponents_are_equal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$v0 </t>
+  </si>
+  <si>
+    <t>get_exponent</t>
+  </si>
+  <si>
+    <t>26th bit - overflow of add</t>
+  </si>
+  <si>
+    <t>final mantissa</t>
   </si>
 </sst>
 </file>
@@ -435,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,15 +457,21 @@
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -467,100 +482,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
